--- a/data/tech_map/Тех_карта_ЗМС_ПУ_БДТ_00_000_Подшипниковый_узел_БДТ.xlsx
+++ b/data/tech_map/Тех_карта_ЗМС_ПУ_БДТ_00_000_Подшипниковый_узел_БДТ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,11 +573,7 @@
       <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -641,11 +637,7 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -705,11 +697,7 @@
       <c r="J8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -769,11 +757,7 @@
       <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -833,11 +817,7 @@
       <c r="J12" t="n">
         <v>0</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -897,11 +877,7 @@
       <c r="J14" t="n">
         <v>0</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -961,11 +937,7 @@
       <c r="J16" t="n">
         <v>0</v>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1025,11 +997,7 @@
       <c r="J18" t="n">
         <v>0</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1089,11 +1057,7 @@
       <c r="J20" t="n">
         <v>0</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1153,11 +1117,7 @@
       <c r="J22" t="n">
         <v>0</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1217,11 +1177,7 @@
       <c r="J24" t="n">
         <v>0</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1281,11 +1237,7 @@
       <c r="J26" t="n">
         <v>0</v>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1349,11 +1301,7 @@
       <c r="J28" t="n">
         <v>0</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1413,11 +1361,7 @@
       <c r="J30" t="n">
         <v>0</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1477,11 +1421,7 @@
       <c r="J32" t="n">
         <v>0</v>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1515,7 +1455,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Вертикально - фрезерная Сумма:0,000, Кол-во:0,904, Tпз:0,500</t>
+          <t>Вертикально-фрезерная Сумма:0,000, Кол-во:0,904, Tпз:0,500</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1577,11 +1517,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Кооперация Сумма:0,000, Кол-во:0,001, Tпз:0,000</t>
+          <t>Ленточно-отрезная Сумма:0,000, Кол-во:0,667, Tпз:0,500</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1599,7 +1539,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1611,16 +1551,16 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ЗМС.ПУ-БДТ.00.002 Уплотнитель для литого корпуса</t>
+          <t>ЗМС.ПУ-БДТ.00.001 Втулка подшипникового узла БДТ</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Кооперация Кооперация</t>
+          <t>03  Заготовительный</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.00055555555555556</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1634,18 +1574,20 @@
         <v>0</v>
       </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ленточно-отрезная Сумма:0,000, Кол-во:0,667, Tпз:0,500</t>
+          <t>Окрашивание порошком Сумма:0,000, Кол-во:0,025, Tпз:0,000</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1663,7 +1605,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1675,16 +1617,16 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ЗМС.ПУ-БДТ.00.001 Втулка подшипникового узла БДТ</t>
+          <t>ЗМС.ПУ-БДТ.00.000 Подшипниковый узел БДТ</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>03  Заготовительный</t>
+          <t>10 Участок порошковой окраски</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.666666666666667</v>
+        <v>0.025</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1698,20 +1640,18 @@
         <v>0</v>
       </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Окрашивание порошком Сумма:0,000, Кол-во:0,025, Tпз:0,000</t>
+          <t>Сборочная Сумма:0,000, Кол-во:1,117, Tпз:0,750</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1729,7 +1669,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1746,11 +1686,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>10 Участок порошковой окраски</t>
+          <t>07 Слесарно-сборочный</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.025</v>
+        <v>1.116666666666667</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1764,18 +1704,20 @@
         <v>0</v>
       </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Сборочная Сумма:0,000, Кол-во:1,117, Tпз:0,750</t>
+          <t>Токарная Сумма:0,000, Кол-во:0,958, Tпз:0,500</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1793,7 +1735,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1805,16 +1747,16 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ЗМС.ПУ-БДТ.00.000 Подшипниковый узел БДТ</t>
+          <t>ЗМС.ПУ-БДТ.00.001 Втулка подшипникового узла БДТ</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>07 Слесарно-сборочный</t>
+          <t>05 Механической обр-ки</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.116666666666667</v>
+        <v>0.958333333333333</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1829,7 +1771,7 @@
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44">
@@ -1837,86 +1779,20 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>42</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Токарная Сумма:0,000, Кол-во:0,958, Tпз:0,500</t>
-        </is>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>43</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>ЗМС.ПУ-БДТ.00.000 Подшипниковый узел БДТ</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>ЗМС.ПУ-БДТ.00.001 Втулка подшипникового узла БДТ</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>05 Механической обр-ки</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>н/ч</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>44</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
